--- a/desafios/d013/Tabelas.xlsx
+++ b/desafios/d013/Tabelas.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 01" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela 02" sheetId="2" r:id="rId2"/>
     <sheet name="Tabela 03" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>A</t>
   </si>
@@ -142,12 +143,63 @@
   </si>
   <si>
     <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Disciplinas</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>Nota 2</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Matemática</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Química</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Exatas</t>
+  </si>
+  <si>
+    <t>Média de Extatas</t>
+  </si>
+  <si>
+    <t>Humanas</t>
+  </si>
+  <si>
+    <t>História</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Média de Humanas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,12 +216,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -199,12 +257,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -214,13 +269,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +611,7 @@
       <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="6">
         <v>3</v>
       </c>
       <c r="D1" s="2">
@@ -554,35 +625,35 @@
       <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>11</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2">
         <v>13</v>
       </c>
@@ -619,18 +690,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -642,10 +713,10 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -655,10 +726,10 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -668,16 +739,16 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -694,77 +765,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="18.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -772,46 +843,46 @@
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -829,4 +900,186 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>